--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -687,10 +687,22 @@
     <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
   </si>
   <si>
+    <t>Slot.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.coding</t>
+  </si>
+  <si>
+    <t>Slot.appointmentType.text</t>
+  </si>
+  <si>
     <t>Slot.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Schedule)
+    <t xml:space="preserve">Reference(Schedule|http://helsenorge.no/fhir/StructureDefinition/hn-basis-schedule)
 </t>
   </si>
   <si>
@@ -1078,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1087,15 +1099,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4913,7 +4925,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
@@ -4925,20 +4937,18 @@
         <v>33</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>33</v>
@@ -4987,22 +4997,22 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>33</v>
@@ -5013,21 +5023,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>33</v>
@@ -5036,19 +5046,19 @@
         <v>33</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5074,49 +5084,49 @@
         <v>33</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>33</v>
@@ -5124,10 +5134,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5135,10 +5145,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>33</v>
@@ -5150,18 +5160,20 @@
         <v>44</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>33</v>
       </c>
@@ -5209,36 +5221,36 @@
         <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5246,7 +5258,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5261,18 +5273,20 @@
         <v>44</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>33</v>
       </c>
@@ -5320,10 +5334,10 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
@@ -5335,21 +5349,21 @@
         <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5357,7 +5371,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -5369,25 +5383,25 @@
         <v>33</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>33</v>
       </c>
@@ -5431,10 +5445,10 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
@@ -5443,10 +5457,10 @@
         <v>55</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>33</v>
@@ -5457,10 +5471,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5468,7 +5482,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>43</v>
@@ -5480,19 +5494,19 @@
         <v>33</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5518,13 +5532,13 @@
         <v>33</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>33</v>
@@ -5542,10 +5556,10 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>43</v>
@@ -5560,9 +5574,453 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>33</v>
       </c>
     </row>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="249">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -630,10 +630,7 @@
     <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
   </si>
   <si>
     <t>Slot.serviceType.id</t>
@@ -682,9 +679,6 @@
   </si>
   <si>
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
   </si>
   <si>
     <t>Slot.appointmentType.id</t>
@@ -3754,11 +3748,11 @@
         <v>33</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>33</v>
@@ -3802,10 +3796,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3911,10 +3905,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4022,10 +4016,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4135,10 +4129,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4248,10 +4242,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4277,10 +4271,10 @@
         <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>171</v>
@@ -4312,11 +4306,11 @@
         <v>69</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>33</v>
       </c>
@@ -4333,7 +4327,7 @@
         <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
@@ -4359,10 +4353,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4468,10 +4462,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4579,10 +4573,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4692,10 +4686,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4805,10 +4799,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4834,10 +4828,10 @@
         <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>171</v>
@@ -4870,7 +4864,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>33</v>
@@ -4888,7 +4882,7 @@
         <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
@@ -4914,10 +4908,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5023,10 +5017,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5134,10 +5128,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5247,10 +5241,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5360,10 +5354,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5386,16 +5380,16 @@
         <v>44</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5445,7 +5439,7 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>43</v>
@@ -5460,7 +5454,7 @@
         <v>166</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>33</v>
@@ -5471,10 +5465,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5500,13 +5494,13 @@
         <v>65</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5535,10 +5529,10 @@
         <v>122</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>33</v>
@@ -5556,7 +5550,7 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>43</v>
@@ -5574,7 +5568,7 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>33</v>
@@ -5582,10 +5576,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5608,16 +5602,16 @@
         <v>44</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5667,7 +5661,7 @@
         <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>43</v>
@@ -5685,18 +5679,18 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5719,16 +5713,16 @@
         <v>44</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5778,7 +5772,7 @@
         <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>43</v>
@@ -5796,18 +5790,18 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5830,13 +5824,13 @@
         <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5844,7 +5838,7 @@
         <v>33</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>33</v>
@@ -5889,7 +5883,7 @@
         <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -5915,10 +5909,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5944,13 +5938,13 @@
         <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6000,7 +5994,7 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3430,7 +3430,7 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,7 +251,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -301,17 +301,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Slot.implicitRules</t>
   </si>
   <si>
@@ -408,6 +401,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Slot.extension</t>
   </si>
   <si>
@@ -428,6 +424,64 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Slot.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Slot.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifer must be UUID/GUID</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Slot.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Slot.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -438,67 +492,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Slot.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Slot.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifer must be UUID/GUID</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Slot.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Slot.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -621,15 +614,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -654,10 +639,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -670,13 +651,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -823,12 +798,6 @@
     <t>The schedule resource that this slot defines an interval of status information.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>Slot.status</t>
   </si>
   <si>
@@ -836,9 +805,6 @@
   </si>
   <si>
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>The free/busy status of the slot.</t>
@@ -861,9 +827,6 @@
   </si>
   <si>
     <t>Date/Time that the slot is to begin.</t>
-  </si>
-  <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
   </si>
   <si>
     <t>FREEBUSY;FBTYPE=FREE:(start)/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
@@ -1245,7 +1208,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1683,13 +1646,13 @@
         <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>72</v>
@@ -1700,10 +1663,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1726,16 +1689,16 @@
         <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1785,7 +1748,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1794,13 +1757,13 @@
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>72</v>
@@ -1811,10 +1774,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1837,16 +1800,16 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1872,32 +1835,32 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
@@ -1905,13 +1868,13 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>72</v>
@@ -1922,14 +1885,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1948,16 +1911,16 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2007,7 +1970,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -2016,13 +1979,13 @@
         <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2033,14 +1996,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2059,16 +2022,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2118,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2133,7 +2096,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2144,14 +2107,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2170,16 +2133,16 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2217,19 +2180,19 @@
         <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2238,13 +2201,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2255,14 +2218,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2281,19 +2244,19 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
@@ -2330,19 +2293,19 @@
         <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2351,13 +2314,13 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -2368,10 +2331,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2394,13 +2357,13 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2451,7 +2414,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2460,27 +2423,27 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2503,13 +2466,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2560,7 +2523,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2586,14 +2549,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2612,16 +2575,16 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2659,19 +2622,19 @@
         <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2680,13 +2643,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -2697,10 +2660,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2723,19 +2686,19 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>72</v>
@@ -2760,46 +2723,46 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -2810,10 +2773,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2836,19 +2799,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>72</v>
@@ -2873,32 +2836,32 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
       </c>
@@ -2906,13 +2869,13 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -2923,10 +2886,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2949,19 +2912,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>72</v>
@@ -2974,58 +2937,58 @@
         <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3036,10 +2999,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3062,16 +3025,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3085,58 +3048,58 @@
         <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>72</v>
@@ -3147,10 +3110,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3173,17 +3136,15 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>72</v>
@@ -3232,7 +3193,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3241,13 +3202,13 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3258,10 +3219,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3284,16 +3245,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3343,7 +3304,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3352,13 +3313,13 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3369,10 +3330,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3395,17 +3356,15 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3430,11 +3389,11 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
@@ -3452,7 +3411,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3461,27 +3420,27 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3504,13 +3463,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3561,7 +3520,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3587,14 +3546,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3613,16 +3572,16 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3660,19 +3619,19 @@
         <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3681,13 +3640,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -3698,10 +3657,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3724,19 +3683,19 @@
         <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>72</v>
@@ -3785,7 +3744,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3794,13 +3753,13 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -3811,10 +3770,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3837,19 +3796,19 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -3898,7 +3857,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3907,13 +3866,13 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -3924,10 +3883,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3950,17 +3909,15 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -3985,11 +3942,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -4007,7 +3964,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4016,27 +3973,27 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4059,13 +4016,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4116,7 +4073,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4142,14 +4099,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4168,16 +4125,16 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4215,19 +4172,19 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4236,13 +4193,13 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4253,10 +4210,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4279,19 +4236,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>72</v>
@@ -4340,7 +4297,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4349,13 +4306,13 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4366,10 +4323,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4392,19 +4349,19 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4453,7 +4410,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4462,13 +4419,13 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4479,10 +4436,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4505,17 +4462,15 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4540,13 +4495,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -4564,7 +4519,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4573,27 +4528,27 @@
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4616,13 +4571,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4673,7 +4628,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4699,14 +4654,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4725,16 +4680,16 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4772,19 +4727,19 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4793,13 +4748,13 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -4810,10 +4765,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4836,19 +4791,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -4897,7 +4852,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4906,13 +4861,13 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -4923,10 +4878,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4949,19 +4904,19 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
@@ -5010,7 +4965,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5019,13 +4974,13 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5036,10 +4991,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5062,17 +5017,15 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>72</v>
@@ -5097,11 +5050,11 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
@@ -5119,7 +5072,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5128,27 +5081,27 @@
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5171,13 +5124,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5228,7 +5181,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5254,14 +5207,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5280,16 +5233,16 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5327,19 +5280,19 @@
         <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5348,13 +5301,13 @@
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5365,10 +5318,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5391,19 +5344,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>72</v>
@@ -5452,7 +5405,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5461,13 +5414,13 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5478,10 +5431,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5504,19 +5457,19 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5565,7 +5518,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5574,13 +5527,13 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -5591,10 +5544,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5617,17 +5570,15 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -5676,7 +5627,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -5685,13 +5636,13 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -5702,10 +5653,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5728,17 +5679,15 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -5763,13 +5712,13 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>72</v>
@@ -5787,7 +5736,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -5796,16 +5745,16 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>72</v>
@@ -5813,10 +5762,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5839,17 +5788,15 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>72</v>
@@ -5898,7 +5845,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -5907,27 +5854,27 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5950,17 +5897,15 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>72</v>
@@ -6009,7 +5954,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -6018,27 +5963,27 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6061,13 +6006,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6075,7 +6020,7 @@
         <v>72</v>
       </c>
       <c r="Q44" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>72</v>
@@ -6120,7 +6065,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6129,13 +6074,13 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6146,10 +6091,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6172,17 +6117,15 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>72</v>
@@ -6231,7 +6174,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6240,13 +6183,13 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-slot.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
